--- a/biology/Biochimie/8-prénylnaringénine/8-prénylnaringénine.xlsx
+++ b/biology/Biochimie/8-prénylnaringénine/8-prénylnaringénine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8-pr%C3%A9nylnaring%C3%A9nine</t>
+          <t>8-prénylnaringénine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 8-prénylnaringénine, appelée aussi 8-PN ou hopéine, est un flavonoïde prénylé, spécifiquement un prénylflavanone. C'est le plus puissant phytoestrogène connu[2].
+La 8-prénylnaringénine, appelée aussi 8-PN ou hopéine, est un flavonoïde prénylé, spécifiquement un prénylflavanone. C'est le plus puissant phytoestrogène connu.
 La 8-prénylnaringénine est un composé phénolique qui se trouve spécifiquement dans les inflorescences femelles du houblon.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8-pr%C3%A9nylnaring%C3%A9nine</t>
+          <t>8-prénylnaringénine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,18 +525,55 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une étude in vitro, la 8-prénylnaringénine a montré des propriétés anticancéreuses[3].
-Elle préserve aussi la densité minérale osseuse[2].
-Œstrogène
-Il a été démontré que la8-prénylnaringénine réduit les bouffées de chaleur[2].
-Ce phytoestrogène interagit fortement avec le récepteur des œstrogènes ERα[4]. Il interagit aussi avec l'ERβ[4], et
-récepteur de la progestérone[5].
-Ce prénylflavonoïde présente un intérêt en hormonothérapie[2].
-Dans une étude de laboratoire, la 8-prénylnaringénine a stimulé la prolifération des cellules mammaires[5].
-Elle influence aussi la prolactine, et stimule d'autres œstrogènes[5].
-L'hormone lutéinisante et l'hormone folliculo-stimulante sont inhibées par ce phytoestrogène[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une étude in vitro, la 8-prénylnaringénine a montré des propriétés anticancéreuses.
+Elle préserve aussi la densité minérale osseuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8-prénylnaringénine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/8-pr%C3%A9nylnaring%C3%A9nine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œstrogène</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été démontré que la8-prénylnaringénine réduit les bouffées de chaleur.
+Ce phytoestrogène interagit fortement avec le récepteur des œstrogènes ERα. Il interagit aussi avec l'ERβ, et
+récepteur de la progestérone.
+Ce prénylflavonoïde présente un intérêt en hormonothérapie.
+Dans une étude de laboratoire, la 8-prénylnaringénine a stimulé la prolifération des cellules mammaires.
+Elle influence aussi la prolactine, et stimule d'autres œstrogènes.
+L'hormone lutéinisante et l'hormone folliculo-stimulante sont inhibées par ce phytoestrogène.
 </t>
         </is>
       </c>
